--- a/Table/Table_xls/s属性/y一级属性转换表.xlsx
+++ b/Table/Table_xls/s属性/y一级属性转换表.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -715,9 +715,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -762,7 +762,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -779,44 +778,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,23 +800,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,6 +854,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -876,24 +885,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,7 +910,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,7 +919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +931,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,25 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,13 +1027,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,13 +1081,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,7 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,91 +1135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,17 +1166,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,6 +1210,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1214,8 +1242,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,23 +1262,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1249,10 +1273,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1261,133 +1285,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1790,13 +1814,13 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.5" style="11"/>
-    <col min="2" max="2" width="9.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.62962962962963" style="11" customWidth="1"/>
     <col min="3" max="3" width="4.75" style="11" customWidth="1"/>
     <col min="4" max="16384" width="7.5" style="11"/>
   </cols>
@@ -1835,16 +1859,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
@@ -1884,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="14">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="F4" s="14">
         <v>0</v>
@@ -1901,16 +1925,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="14">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F5" s="14">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
@@ -1947,19 +1971,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="14">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D7" s="14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E7" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="14">
         <v>0.6</v>
       </c>
-      <c r="F7" s="14">
-        <v>0.4</v>
-      </c>
       <c r="G7" s="14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
@@ -2047,7 +2071,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="2" customWidth="1"/>
@@ -51609,7 +51633,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
